--- a/data/Subset 1/Number lines 3_Grade 4.xlsx
+++ b/data/Subset 1/Number lines 3_Grade 4.xlsx
@@ -479,7 +479,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -504,7 +504,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -554,7 +554,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -704,7 +704,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -954,7 +954,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Class</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Class</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Class</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2070,7 +2070,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2620,7 +2620,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>RT5</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>RT5</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>RT5</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3053,7 +3053,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3478,7 +3478,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3636,7 +3636,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4140,7 +4140,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4240,7 +4240,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4319,7 +4319,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -4569,7 +4569,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -4694,7 +4694,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -4769,7 +4769,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -4819,7 +4819,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -4844,7 +4844,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -4977,7 +4977,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -5106,7 +5106,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -5160,7 +5160,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -5210,12 +5210,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>[to class]  I'd like you to  think about the little number line you made, the fraction  number line between zero and one.</t>
+          <t>[to SS]  I'd like you to  think about the little number line you made, the fraction  number line between zero and one.</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -5285,7 +5285,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -5310,7 +5310,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
